--- a/tests/tests.xlsx
+++ b/tests/tests.xlsx
@@ -440,7 +440,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tests/tests.xlsx
+++ b/tests/tests.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>Etape</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>fichier ind noms fautes</t>
+  </si>
+  <si>
+    <t>message info : noms corrects</t>
+  </si>
+  <si>
+    <t>mess erreur + noms incorrects + nom attendu + stop</t>
+  </si>
+  <si>
+    <t>affiche toutes les fautes quand il y  en a plusieurs</t>
   </si>
 </sst>
 </file>
@@ -437,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -448,7 +457,7 @@
     <col min="1" max="1" width="32.33203125" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="54.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -604,20 +613,52 @@
       <c r="B14" t="s">
         <v>27</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>28</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests.xlsx
+++ b/tests/tests.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>Etape</t>
   </si>
@@ -129,6 +129,48 @@
   </si>
   <si>
     <t>affiche toutes les fautes quand il y  en a plusieurs</t>
+  </si>
+  <si>
+    <t>4 : checkClass()</t>
+  </si>
+  <si>
+    <t>message erreur + nom + classe fautive (classe anormale et classe attendue) + stop</t>
+  </si>
+  <si>
+    <t>classe incorrecte factor</t>
+  </si>
+  <si>
+    <t>classe incorrecte integer</t>
+  </si>
+  <si>
+    <t>classe incorrecte numeric</t>
+  </si>
+  <si>
+    <t>classe attendue IND</t>
+  </si>
+  <si>
+    <t>classe attendue QUAD</t>
+  </si>
+  <si>
+    <t>factor, integer ou numeric : message info</t>
+  </si>
+  <si>
+    <t>5: checkFactor()</t>
+  </si>
+  <si>
+    <t>uniquement les colonnes de classe factor</t>
+  </si>
+  <si>
+    <t>modalité correspond à l'attendu</t>
+  </si>
+  <si>
+    <t>modalité ne correspond pas à l'attendu</t>
+  </si>
+  <si>
+    <t>message erreur + col/numero/contenu des lignes + contenu attendu</t>
+  </si>
+  <si>
+    <t>message d'information pertinent</t>
   </si>
 </sst>
 </file>
@@ -164,11 +206,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,7 +685,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -653,12 +696,94 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests.xlsx
+++ b/tests/tests.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/feral/Documents/GitHub/PenvinsCup_2017/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasbrazier/Documents/GitHub/PenvinsCup_2017/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="26420" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="460" windowWidth="26420" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>Etape</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>message d'information pertinent</t>
+  </si>
+  <si>
+    <t>teste les NA</t>
+  </si>
+  <si>
+    <t>6 : checkNumeric()</t>
   </si>
 </sst>
 </file>
@@ -489,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -769,11 +775,17 @@
       <c r="B24" t="s">
         <v>43</v>
       </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>44</v>
       </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E25" t="s">
         <v>47</v>
       </c>
@@ -782,8 +794,24 @@
       <c r="B26" t="s">
         <v>45</v>
       </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E26" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests.xlsx
+++ b/tests/tests.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>Etape</t>
   </si>
@@ -177,6 +177,54 @@
   </si>
   <si>
     <t>6 : checkNumeric()</t>
+  </si>
+  <si>
+    <t>colonnes de chiffres : integer ou numeric</t>
+  </si>
+  <si>
+    <t>contenu ne sort pas de l'intervalle</t>
+  </si>
+  <si>
+    <t>contenu sort de l'intervalle</t>
+  </si>
+  <si>
+    <t>message err + numero ligne + contenu + intervalle min-max attendu</t>
+  </si>
+  <si>
+    <t>message pertinent</t>
+  </si>
+  <si>
+    <t>pas de NA pour hauteur, largeur</t>
+  </si>
+  <si>
+    <t>pas de NA pour coef, d.chenal</t>
+  </si>
+  <si>
+    <t>7 : checkRatio()</t>
+  </si>
+  <si>
+    <t>fait différence ind/quad</t>
+  </si>
+  <si>
+    <t>ratio larg/haut (pas NA) dans l'intervalle</t>
+  </si>
+  <si>
+    <t>ratio larg/haut (pas NA) hors de l'intervalle</t>
+  </si>
+  <si>
+    <t>ratio peri/larg (pas NA) dans l'intervalle</t>
+  </si>
+  <si>
+    <t>ratio peri/larg (pas NA) hors de l'intervalle</t>
+  </si>
+  <si>
+    <t>message erreur + numero ligne + esp + ratio obs + ratio attendu</t>
+  </si>
+  <si>
+    <t>si tous les ratios corrects</t>
+  </si>
+  <si>
+    <t>message info pertinent</t>
   </si>
 </sst>
 </file>
@@ -495,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -813,6 +861,82 @@
       <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/tests.xlsx
+++ b/tests/tests.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
   <si>
     <t>Etape</t>
   </si>
@@ -225,6 +225,18 @@
   </si>
   <si>
     <t>message info pertinent</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>soit pas d'erreur</t>
+  </si>
+  <si>
+    <t>soit warnings()</t>
+  </si>
+  <si>
+    <t>une seule modalité pour les col transect, resp, date, mode</t>
   </si>
 </sst>
 </file>
@@ -543,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -858,84 +870,105 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>57</v>
-      </c>
       <c r="B34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>64</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests.xlsx
+++ b/tests/tests.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasbrazier/Documents/GitHub/PenvinsCup_2017/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/feral/Documents/GitHub/PenvinsCup_2017/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="460" windowWidth="26420" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="26420" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
   <si>
     <t>Etape</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>une seule modalité pour les col transect, resp, date, mode</t>
+  </si>
+  <si>
+    <t>message erreur + nombre d'erreur</t>
   </si>
 </sst>
 </file>
@@ -557,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -923,6 +926,9 @@
       <c r="B35" t="s">
         <v>58</v>
       </c>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
@@ -969,6 +975,9 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>68</v>
+      </c>
+      <c r="E43" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
